--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.499</v>
+        <v>23.501</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>35.82092374546065</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>35.82093618676961</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35.82093589698382</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35.82069172270393</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35.82069841600769</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35.8206978665167</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35.82100274324185</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.82100838587971</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.82100786986807</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35.8198477461878</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.81985747159279</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.81985717107297</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>35.8197564196148</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.81977438383143</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.81977497479686</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>35.81983843256562</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35.8198882743732</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.81987793512011</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>35.8196375244444</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35.8196650116051</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.8196495136872</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35.82002483023627</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.82004932293441</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>35.81939352724887</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35.81727006725551</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.81727917837332</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35.81727975039444</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>35.81711016091086</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.81713078180076</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35.81716329177878</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.81925679955318</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.81926957692617</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.81941558003427</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.81906809863651</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.81903039004093</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.81902378714226</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.81956714647209</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.81952286216274</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>35.8194422166877</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.81727013580715</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.81731310006374</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>35.81730986510425</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.81709964245317</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.81717301985999</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>35.81714662860275</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>35.82108224586788</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>35.82038838570057</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.82038153387519</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>35.8201079746818</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>35.82011019315382</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.82010554793781</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>35.82049191618433</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.82048032394032</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.82047683989551</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.81904707526195</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>35.8190858308815</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.81908204345689</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35.81895824682982</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.81899039233932</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.81898605390823</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35.81870950358081</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.81917768447261</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.81919820201747</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.81900661878932</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>35.81899787544464</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.81900448510726</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>35.81955535492363</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.81944561803245</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35.81945487493795</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.81782619722401</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>35.81825325561118</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>35.81823253257685</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.81803145603749</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.81811816696114</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35.81809409435905</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>35.81941310056429</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.81881851425103</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>35.81880069966361</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.81880609565439</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.81872799432445</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.8186920704982</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>35.81939344170794</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.81913712267511</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>35.81911115031682</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>35.81692042619213</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>35.81736262482831</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.81733738717549</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>35.81712170375795</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35.81720922618807</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>35.81717989285459</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.82080660992852</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.8211311266906</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.82125539231348</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.82116455083331</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.82112785154378</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.82109902629772</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>35.82128573432053</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.82122539739866</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>35.82084387761608</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>35.8195704847327</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.81960688978581</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.81960531297343</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>35.81946968434868</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>35.81952351895382</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>35.81945842786797</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>35.81979443344123</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.81987247415313</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.82008345810968</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>35.81997912274316</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.81989879883717</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.81984954124943</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>35.82016565960271</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>35.82004551910912</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.81942865426276</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.8175861605649</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.81765318162974</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>35.81767015113317</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>35.81736980751445</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.81748386581491</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>35.81751439856625</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.81862253012793</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.81871610374209</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.81873650062539</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.81845427090208</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.81851381112396</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.81852749750519</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>35.81895170401261</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35.81900455165704</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>35.81901871079123</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>35.81700223868447</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>35.81707014048898</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>35.81708786991427</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.81675616504383</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>35.81687705653041</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>35.81690717468312</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>35.82089459278266</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>35.82091041467015</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.82090979725412</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>35.82067451810719</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>35.82068341578032</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>35.82068309364097</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>35.82098507730993</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>35.82099274223776</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>35.82099226333736</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.81982658244524</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.81983986689246</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.81983975608325</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.81972741714218</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>35.8197511176334</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>35.81975157488597</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>35.81970023725297</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.81974966844241</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.81973452208904</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>35.81945604382905</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>35.81947948322031</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>35.81946251816694</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>35.81987262090998</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.81989305388739</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.81935955967359</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.81731974758743</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.81733555412821</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>35.81733612569735</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>35.81716371291233</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.81719610842804</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.81723385291426</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>35.81915986521518</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.81917033108557</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.81922563975681</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>35.81886663716892</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.81881998079237</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.81880967662421</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>35.81937260887606</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>35.81932078419646</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.81939224212826</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.8173777683085</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>35.81742975811326</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>35.81742301478048</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35.81721572477</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>35.81730637099361</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>35.81729326371896</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>35.82127367716011</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.82109401202294</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>35.82108684720611</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>35.82089037969178</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>35.8208932560193</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>35.82088864285125</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.82116930100692</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.82116839390764</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.82116438258118</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.82008565895449</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.82012438951865</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.8201210857094</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>35.82003031823391</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.82004612668696</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.82004261156825</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.8197266874915</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.81998495487131</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>35.81998776662362</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>35.81977874860515</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.81977152281258</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>35.81977218398216</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.82020951337093</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>35.8201563616409</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>35.820158463482</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>35.81833897991194</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.81847449878703</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.81846229961848</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.81831913806153</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>35.81836424814433</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.81834854329024</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>35.81966858287531</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.81945948285459</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.81944744656163</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.81920549780912</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.81917406840145</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.81915888129875</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.81971804722853</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>35.81962782645827</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>35.81961681648642</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.81776387450893</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.8178883371153</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>35.81787563702804</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>35.81772400693244</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.81776752142867</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>35.81775131833879</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.81905148602536</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>35.81961922023537</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>35.81983421513348</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>35.81967160866745</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>35.81961343156918</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.81956497572867</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>35.81989154329279</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>35.81979566092654</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.81915178504885</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.81694700558149</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.81700590297679</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>35.8170056877949</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>35.81677318219728</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.81686088012814</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.81674954651781</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.81732064539266</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>35.8174455525528</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>35.81779381420387</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.81761457503194</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>35.81748336285152</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.81740110090406</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.81794316671521</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>35.81775066176306</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>35.81675175211361</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>35.81360939498736</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>35.81371576162598</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>35.81374588562979</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.81324122919465</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>35.81342066450434</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.81347394589928</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>35.81537493777653</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.8155341581906</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>35.81556894614463</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>35.81509943317837</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>35.81520254674209</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.81522457128141</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>35.81594747374829</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>35.81603926088116</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.81606152418155</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>35.81261553558553</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>35.81272943215991</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.81276051321769</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>35.81218982504463</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>35.81239205950845</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>35.81244447094753</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>35.81845973332554</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35.81850028195773</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>35.81850245501043</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>35.81803920243966</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.81805745202426</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.81805747097911</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>35.81866539723914</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>35.81868092663369</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>35.81868172676532</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>35.81630293494114</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>35.81633427070583</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.81633607270842</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>35.81607052622991</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>35.81613208551788</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>35.8161359979316</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>35.81655215828616</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.81671290037836</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.8166891449967</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>35.81637015891538</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.81645655160662</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.81641380173087</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>35.81703096141024</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>35.81711039225007</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.81528172636636</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>35.81099592806083</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.81102782205204</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>35.81103096296217</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>35.81065296023804</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>35.81072507872068</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.81073843367464</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.8152301388455</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.81526990084389</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.81559635662896</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>35.81505760845339</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>35.81491729068416</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>35.81487233257233</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.81586360982812</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.81570597256921</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>35.81603600937726</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>35.81200835602903</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>35.81216041131132</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>35.8121510250548</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>35.81165560352198</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>35.81191349489267</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>35.81171800666984</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>35.82089044692872</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.82043649521331</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>35.82042833483833</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>35.8201649510896</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>35.82016715759553</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>35.82016174102848</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>35.82053845023684</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.82053170159003</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>35.82052723803843</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.81909947589293</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.81915301639735</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.8191488894037</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.81902479961871</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.81905155731804</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.81904701508304</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.81870771467769</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.81916402222003</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>35.81917548208675</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>35.81896274523523</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>35.81895196906759</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.81895565852017</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>35.81951123323201</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>35.81941453276818</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>35.81942025414238</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>35.81716956147208</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.81746145155888</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.81744243907503</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>35.81724386403795</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.81731946234292</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.81729648070746</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>35.81888155448397</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.8183775504513</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.81836058119811</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.81818304898916</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.81811622270755</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.81808846424342</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>35.81886040158793</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>35.8186532909411</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.81863294059019</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>35.81621887406572</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>35.81649908997755</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>35.8164783023934</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>35.81625990946284</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>35.81633318967822</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>35.81630865447034</v>
+        <v>35.82315197712156</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>35.81985362671968</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>35.82033997455104</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.82052490505586</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>35.82040848371678</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.82035682067677</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>35.82031470916528</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>35.82056487805859</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>35.82048005363236</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.8199221422673</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.81813880901267</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>35.81819063225679</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.81818987212326</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>35.81799765121834</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.81807470458285</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>35.81797888235418</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>35.81850012801655</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.81861029852767</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.81891443550411</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>35.81879539706885</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.81868026191658</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>35.81860856308003</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>35.81902673559777</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.81885708291473</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>35.81797924534849</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.81544801926242</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.81554219757346</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>35.81556787325685</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.81514343800826</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>35.81530274191267</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.81534832230198</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.81683978632033</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.81697803661792</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.81700775310613</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.8166406347585</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.81672992987736</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>35.81674905888453</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>35.81731869708331</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35.81739804060842</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.81741752258372</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>35.81464522152044</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.81474462380992</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>35.81477113160012</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.81429378204648</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>35.8144703116452</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>35.81451507176791</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>35.81968904790513</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>35.81971961375061</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>35.81972125710003</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.81937931194792</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>35.81939427839528</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>35.81939423564464</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.81984083291956</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>35.81985373840176</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.8198543089451</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.81809833633868</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.81812218874276</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>35.81812337523987</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.81792728796311</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>35.81797361680373</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>35.81797639810117</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.81830131769878</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>35.81842303512837</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>35.81840246299772</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>35.81817515404438</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.8182441549972</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>35.81820892740453</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.81872444194889</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>35.81735899441924</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.81734489816751</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>35.81416267751254</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.81418647445685</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>35.81418814638854</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>35.81390913340854</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.81395212325905</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>35.81396716131186</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.81732343679659</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.8176271757879</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.81761744616139</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.81722437917102</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.81710536671292</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.81708762652605</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.81781296678005</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.81792642801773</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.81789554020499</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.81489104026331</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>35.81500472751052</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.81499538656657</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>35.81462957527857</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>35.81465502538167</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>35.81466940445782</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>35.82003860723658</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>35.82006800850274</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>35.82006079050289</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>35.81974445038116</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.81975906766156</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>35.81975384163175</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>35.82015738348014</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>35.82017090650414</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.82016685007611</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.81859996166964</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>35.81862077020708</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.81861663106739</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>35.81847281287364</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.81851258339461</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.81850803846109</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.81861323003488</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.81871151972223</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.81873766216574</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.81845657419272</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.8185263603461</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.81853988362975</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>35.8189597204511</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>35.81902164751445</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.81932033909151</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>35.81765374578178</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>35.81772013115287</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.81769863118858</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.81743844074172</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>35.81756110249037</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>35.81753744461655</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.81819864459048</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>35.81831705594345</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>35.81829936503411</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.81817311450208</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>35.81822241931058</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.81818495002825</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>35.81863288518218</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>35.81867958634673</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>35.81865254403144</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>35.81671270169851</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>35.81677610622314</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>35.81675171774975</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>35.81647030568498</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>35.81660179303001</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>35.81657584226985</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.82108330647031</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>35.82125819350041</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>35.82125378259469</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>35.82116317139316</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>35.82110555767388</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>35.82109776161267</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>35.82128366667894</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.82084994437138</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>35.8208426216635</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.81957012291</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.8196065205077</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.81960498634923</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.81946945872507</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.819454223559</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.8194583518811</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>35.81980412687883</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>35.82009445624534</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>35.82008658920198</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>35.81998466378091</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>35.81986965426192</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.81985483868732</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>35.82016715975168</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>35.81943904382796</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.81941683805125</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.81761288825228</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.81766550837605</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.81768294426372</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>35.81740614627363</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.81750052552481</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.81772319650735</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>35.81868191138683</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.81876567858695</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.81902660270937</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>35.81851420788049</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.8185570938245</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.81846543497001</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>35.81900466822805</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.81904451430515</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>35.81910109794816</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.817047198457</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>35.81709827254614</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>35.81712278953629</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>35.81681034334066</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>35.81690820352711</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>35.81649779588428</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>35.82014122095011</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>35.82016555836657</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>35.82020359264724</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>35.81987514330127</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>35.81988393650542</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>35.81985502255436</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>35.82027781964316</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>35.82028563533316</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>35.82030542034025</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>35.81875299131141</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>35.81877066329301</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>35.81877728814079</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>35.8186051680674</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>35.81864234157785</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.81988201082176</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>35.81903423892984</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>35.81913367438192</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>35.81937290515622</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>35.81895062184045</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>35.81899598030206</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>35.81882254990902</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>35.81813094524937</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>35.8180813364001</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>35.81806875445859</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>35.81530778877099</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.81533817703749</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>35.81534119122724</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>35.81503970667375</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.81514203276729</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.81515921304519</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>35.81843869868884</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.81835140720256</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.81834189594905</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.81800507245953</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.81790909529393</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>35.8178910351885</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>35.81865403728058</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.81859257995302</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.81856274869362</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.81596738711884</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.81608954562981</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>35.81608287936805</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>35.81547310356785</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.81576150692634</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>35.81525921733027</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>35.82031852310134</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>35.82033555107871</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.82033345154439</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>35.82003783602816</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>35.82004325256163</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>35.82003775039039</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>35.82042119550439</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.82042638081445</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.82041938055289</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.81898004013369</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.81899084363631</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.81898777770708</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>35.81886568359645</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.81888934796051</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.81957759963912</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>35.81903054628091</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.81910103891583</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>35.81926719462354</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>35.81883583276126</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.8188791810854</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>35.81881965856452</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.81931386963443</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>35.81948434706657</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.8195988693555</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>35.81775064991216</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>35.81778325760255</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>35.81777880394796</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.81755991881729</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>35.81762762677586</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.81808407339565</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>35.81841964759972</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.81849366774856</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.81879489889955</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.8183029814298</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.81832082172451</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.8181505018609</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>35.81878785584686</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>35.81880842871273</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>35.81904567552808</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>35.81673779409543</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>35.81676252709905</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>35.81675591298294</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>35.81651244336064</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.81657708565335</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.81582816336072</v>
+        <v>35.82315197712156</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>35.82138402889458</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.8213528051914</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.82134806087261</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>35.82125185565803</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.82121426481824</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.82065356573916</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>35.82096559952556</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>35.82096116016363</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.82095784221728</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>35.8197413864491</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>35.81977551052806</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.81970025616813</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>35.81956294442255</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.81963123398183</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>35.81974081233833</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>35.82030935827571</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.8202292246543</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.82018867929457</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.82010722913623</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.82000985418156</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.81909358717549</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>35.81972631817611</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>35.81964457348788</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.81961528393939</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.81787537466304</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.8179253426753</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>35.81793641100057</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>35.81772976294856</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.81789412835827</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.81792952332253</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>35.81918711609107</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.8191958226242</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.81919679335031</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.8185282214795</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.81861777603478</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.8186394287584</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>35.8194332836948</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.81933544732837</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>35.81931013046567</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>35.81733122057791</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>35.81737945548443</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>35.81739219603369</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.81597248018331</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.81606683274273</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.81606567936395</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.8211793534752</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.82117922439532</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.8211793398841</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>35.820955053749</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.82096158491404</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>35.8209615567816</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.82125507841488</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.82124535229119</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.82124566930514</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.82022566863399</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.82023130262385</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.82023175695479</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.82044326973098</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>35.82047526333114</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>35.82047114463726</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>35.82023429754594</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.82023124126174</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>35.82022743142752</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.81987635094042</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.81989967112043</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.81956353894463</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>35.82002573275544</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.82000582486435</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>35.82000309045288</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.81840671169912</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.81841885332643</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.81842984247144</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.81827444891915</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>35.81831129827381</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.8182829943664</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>35.81968358579136</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.81965252581763</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.81964183233204</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.81932367456289</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.81928680098243</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>35.81959641167985</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>35.82005038938337</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>35.82001894679401</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.82001517209599</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>35.81847135360358</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>35.81850746721922</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.81847914161393</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>35.81828914038982</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>35.81767931562941</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>35.81768082478771</v>
+        <v>35.82315197712156</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>35.82196589554371</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>35.82196285004558</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.82196249122865</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>35.82183845776679</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.82183812644762</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.82183927548775</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.82200564369784</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.82200098303301</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>35.82200014833697</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.82138346923379</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.82138515726099</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.82138551241027</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.82133323000174</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>35.82144170366349</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.82144204660194</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.82128437067959</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.82130666715597</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.82130551860837</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.82111768811966</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>35.82110702770981</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.821108585023</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>35.82150090885304</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>35.8214957060157</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.82149414476659</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.8206858893105</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.82068968285976</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>35.82068888751483</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>35.82061421267591</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.82061050816332</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.82061116035916</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>35.82130701901774</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.82130111374234</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>35.82128121010357</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>35.82109384418482</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>35.82109733430552</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.82110684988861</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>35.82134500632672</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.8213282922525</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>35.82131172813754</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.82046118767423</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>35.82046164256787</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.82043952992644</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.82040192174564</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.82041247538744</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>35.82041290913008</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>35.82118595069444</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>35.82117097954888</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.82117094719554</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.82091526680353</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.82091718990701</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>35.82091580456301</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>35.821190628737</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>35.82118770865952</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>35.82118701979991</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>35.8201284240029</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>35.82014710740579</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>35.82014633973652</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.82009750852484</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>35.82010934671344</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.82010791701691</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>35.81994668347037</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.81991288474545</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.81991260704369</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.8194891716397</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.81955019757132</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.81954060281674</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.81999053539759</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>35.81994478250135</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.81993506578495</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.81833667889983</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>35.81837588455039</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.81838056500607</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.8182038458193</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>35.81824821857025</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.81825229915228</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>35.81951228334547</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.81943877101571</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.81943935025851</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.81900545696482</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.81912474475766</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>35.8191152765656</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>35.81964409963589</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.8195967796733</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>35.81958738134266</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>35.81771027927326</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>35.8173806053059</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>35.81737949492375</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.81719392927735</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>35.81723072720079</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.81723010227305</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>35.82092658586829</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>35.82091865305036</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.82091840771867</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>35.82067380261431</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>35.82069426021313</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.82069475074227</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>35.82101692573221</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>35.8209996138985</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>35.82100018502454</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>35.81984242393633</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>35.82030529809868</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.82029936236916</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>35.82019815386172</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>35.82023775742136</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.82023042209308</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>35.81990687092016</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.81985354677312</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.81984374932398</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>35.81898220201651</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>35.8189628716393</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>35.81895913458001</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>35.81951937807118</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.81949445353818</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.81949040925378</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.81759956539985</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.81763165465618</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>35.8176348035339</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>35.81743052098125</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.81744534709457</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>35.81744551642931</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>35.81925756119446</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.81921369384464</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.81921165025618</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.81904074442919</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.81902423835866</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.81901375011982</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>35.81957136678948</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.81953431613054</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>35.81952713823502</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.81762393080054</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>35.81770546266776</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>35.81725196817253</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>35.81706013584674</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>35.81709250940342</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>35.81709584882811</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>35.82196967033494</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>35.82196851005623</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>35.82197118432945</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>35.82184442349729</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.82184441069479</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.82184301725302</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>35.82200924379358</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>35.82200642512814</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>35.82200542957354</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>35.82139295672525</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.82139361203596</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>35.82149913063273</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>35.82144977434886</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>35.82145534633268</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.82145570883085</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>35.82132447526733</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>35.82132121804149</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.82131103786096</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.821121679</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>35.82128664973798</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>35.82130086266189</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.82151772742036</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>35.82150539213727</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.82149065758978</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.82070560382715</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>35.82070717943957</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>35.82069580418435</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>35.8206125261925</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.82063084648956</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>35.8206314130496</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>35.82132083616771</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.82131460010198</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>35.8212959207326</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>35.82111086721968</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>35.82111436844819</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>35.82112141719078</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>35.82135716788162</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>35.8213398972221</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.8213230296518</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.8204841809964</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.82048465330705</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>35.8204665753319</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>35.82042937376274</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>35.82044036288914</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>35.82044081420522</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>35.82104123532331</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.82101384792826</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.82101407888178</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>35.82061778566154</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>35.82062218937818</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>35.82061855338602</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>35.82093265502879</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>35.82092794189511</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>35.8209262442976</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.81969386600456</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>35.81972586709476</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>35.81972397993115</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>35.81969546559577</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>35.81971613043684</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>35.81971224344673</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>35.81971102354021</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.81965065978051</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>35.81965030577352</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>35.81905560871904</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>35.81916964840828</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>35.81915426428536</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>35.81964963609126</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>35.81956149384816</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>35.81954557777678</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>35.81782271021778</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>35.81789248883067</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>35.81790062446179</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.8176593049127</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>35.81774828191818</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>35.81775748087828</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.81911346684834</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.81900199865969</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>35.81900535859774</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>35.81849553035237</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.81869739829887</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>35.81868330551786</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>35.81927162326581</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>35.81918035843332</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>35.81916455866547</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>35.81711165073063</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>35.81673746517817</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>35.81673011666685</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>35.81648934514969</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>35.81657353346138</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>35.81656699059673</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>35.82080309219417</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>35.82080037472732</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.82079996648493</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>35.82054052404087</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.82056098305686</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>35.82056113229749</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>35.82091247189925</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.82089580648221</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>35.82089624234504</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>35.81965108001185</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>35.82038945485324</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>35.82038188808757</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>35.82027250146314</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.82032588348445</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.82031701242797</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>35.81989182749857</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.81981164263824</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>35.81979642553267</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>35.81856063515509</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>35.81854133960434</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.81853258916607</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>35.81918597156318</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>35.81915943236465</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>35.8191503396687</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.81698219604327</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>35.81701647459178</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>35.81702263348948</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>35.81677972541506</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>35.81679491904803</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>35.81679403786143</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.81918964150092</v>
+        <v>35.82315197712153</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.81913749866096</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.81912979471312</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>35.81864174635862</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.81863236569481</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>35.81861063861888</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>35.81927468712974</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>35.81923736341725</v>
+        <v>35.82315197712154</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>35.81922042993553</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>35.81697899259277</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>35.81707622261309</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>35.81726445589224</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>35.817055472437</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>35.81710268280986</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>35.81711092577753</v>
+        <v>35.82315197712155</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-5.53867882393082</v>
+        <v>-5.538678823992097</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.62808838543684</v>
+        <v>27.62808838541604</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.75282081847227</v>
+        <v>34.75282081849001</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.44443948642582</v>
+        <v>11.44443948651677</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.85634849904544</v>
+        <v>23.85634849912002</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.95577512129841</v>
+        <v>27.9557751212834</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19.80018349203873</v>
+        <v>19.80018349216174</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.35209817215808</v>
+        <v>29.35209817216013</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.39103191512991</v>
+        <v>32.3910319151888</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36.09999224263412</v>
+        <v>36.09999224264605</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.62589795719087</v>
+        <v>42.62589795721054</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>45.26456806686484</v>
+        <v>45.26456806695488</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.12856509992149</v>
+        <v>25.1285650999506</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>41.59230147263712</v>
+        <v>41.59230147265167</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>47.29863078529421</v>
+        <v>47.29863078529785</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.052208715690075</v>
+        <v>1.052208715675409</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.2217680452495</v>
+        <v>34.22176804522938</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.34741580762112</v>
+        <v>41.34741580759338</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18.03640582510478</v>
+        <v>18.03640582508102</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.45027157872481</v>
+        <v>30.45027157873379</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.55019722757025</v>
+        <v>34.55019722755206</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.3936487893286</v>
+        <v>26.39364878929938</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.94699750510289</v>
+        <v>35.94699750512301</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.98632088774171</v>
+        <v>38.98632088778218</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>42.69607562395196</v>
+        <v>42.69607562394206</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>49.22279016083404</v>
+        <v>49.22279016082688</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>51.86182571007258</v>
+        <v>51.8618257100578</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.72399404483939</v>
+        <v>31.72399404481529</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>48.18963886445907</v>
+        <v>48.18963886445475</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53.89688498831161</v>
+        <v>53.89688498828637</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>13.7851729914389</v>
+        <v>13.78517299144481</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.95422112032382</v>
+        <v>46.95422112035384</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>54.07985052204945</v>
+        <v>54.07985052205855</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>30.77054391543981</v>
+        <v>30.77054391540524</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.18445634439091</v>
+        <v>43.18445634437977</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>47.28448541403542</v>
+        <v>47.28448541399176</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.12809063960627</v>
+        <v>39.12809063956352</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>48.68144758727873</v>
+        <v>48.68144758732966</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>51.7208170485561</v>
+        <v>51.7208170486043</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>55.43174474780265</v>
+        <v>55.43174474782766</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>61.95840538622097</v>
+        <v>61.95840538616288</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>64.59748070580757</v>
+        <v>64.59748070579347</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>44.45990549878671</v>
+        <v>44.45990549869212</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>60.92537771390901</v>
+        <v>60.92537771385445</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>66.63266275180602</v>
+        <v>66.63266275181512</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-8.431371379232484</v>
+        <v>-8.431371379206791</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.73579317068867</v>
+        <v>24.73579317067457</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.86028838109779</v>
+        <v>31.86028838102913</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8.551579409637942</v>
+        <v>8.551579409704448</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>20.96375761469629</v>
+        <v>20.96375761471392</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.0629897869636</v>
+        <v>25.06298978696224</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.90729366218544</v>
+        <v>16.90729366208767</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.45944092592923</v>
+        <v>26.45944092584783</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.49823835133349</v>
+        <v>29.49823835132417</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.20710755721869</v>
+        <v>33.20710755723313</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>39.73312355473421</v>
+        <v>39.73312355468157</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.37168844182644</v>
+        <v>42.37168844170343</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>22.23552638908506</v>
+        <v>22.2355263891527</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>38.69951217269782</v>
+        <v>38.69951217273704</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.4056397623152</v>
+        <v>44.40563976238069</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1.841245916953323</v>
+        <v>-1.841245916951163</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.32871079247956</v>
+        <v>31.3287107924583</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.45412129917678</v>
+        <v>38.45412129916222</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>15.1427836219492</v>
+        <v>15.14278362198739</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.55691859043997</v>
+        <v>27.55691859046248</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.65664975902301</v>
+        <v>31.65664975902074</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>23.49999684493411</v>
+        <v>23.49999684488511</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.0535781627094</v>
+        <v>33.0535781626895</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.09276520416425</v>
+        <v>36.09276520419358</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>39.8024288686306</v>
+        <v>39.80242886859979</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>46.3292536983074</v>
+        <v>46.32925369827454</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>48.96818400956691</v>
+        <v>48.96818400952644</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.83019327530836</v>
+        <v>28.83019327532257</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>45.29608754015861</v>
+        <v>45.29608754015827</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>51.00313190217285</v>
+        <v>51.00313190213238</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.89158387208169</v>
+        <v>10.89158387210556</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.06102937176034</v>
+        <v>44.06102937175352</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.18642152044855</v>
+        <v>51.18642152041421</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.87678716515267</v>
+        <v>27.87678716521087</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.29096879962718</v>
+        <v>40.29096879965992</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44.39080339479516</v>
+        <v>44.39080339484836</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.23430416764778</v>
+        <v>36.23430416762231</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.78789370813989</v>
+        <v>45.78789370814057</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>48.82712683416786</v>
+        <v>48.8271268342147</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>52.53796345131308</v>
+        <v>52.53796345124759</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>59.06473437643818</v>
+        <v>59.06473437645637</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>61.70370446219543</v>
+        <v>61.70370446211585</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>41.56597019371678</v>
+        <v>41.56597019375134</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>58.03169184435374</v>
+        <v>58.03169184432964</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>63.73877513262572</v>
+        <v>63.7387751326571</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-8.425832956128158</v>
+        <v>-8.425832956086889</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.74133732488132</v>
+        <v>24.74133732486733</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.86583224354591</v>
+        <v>31.86583224349362</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8.557110976330012</v>
+        <v>8.557110976335924</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>20.96928260809999</v>
+        <v>20.96928260810272</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.06851779516443</v>
+        <v>25.06851779527857</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.91283657526684</v>
+        <v>16.91283657516407</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.46497725120991</v>
+        <v>26.46497725118808</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.50377715584237</v>
+        <v>29.50377715590263</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33.21266976610524</v>
+        <v>33.21266976601179</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>39.73868237818839</v>
+        <v>39.73868237812336</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.37724724432756</v>
+        <v>42.37724724420478</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.24109574112071</v>
+        <v>22.24109574117266</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>38.70506836962407</v>
+        <v>38.70506836968626</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>44.41120183174131</v>
+        <v>44.41120183178906</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.835587549688977</v>
+        <v>-1.835587549601097</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.33437489361414</v>
+        <v>31.33437489357287</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.45978510610858</v>
+        <v>38.45978510607516</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>15.14843513784921</v>
+        <v>15.14843513785683</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.56256353375987</v>
+        <v>27.56256353371429</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.66229771596123</v>
+        <v>31.6622977159776</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>23.50565971066066</v>
+        <v>23.50565971064963</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.05923444116114</v>
+        <v>33.05923444120309</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.09842396060104</v>
+        <v>36.09842396062173</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>39.80811102774508</v>
+        <v>39.80811102775429</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.33493247264435</v>
+        <v>46.33493247257307</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>48.97386276203189</v>
+        <v>48.97386276197641</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.83588257420432</v>
+        <v>28.83588257418795</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>45.30176368588762</v>
+        <v>45.30176368579008</v>
       </c>
     </row>
     <row r="121">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>10.89729314573798</v>
+        <v>10.89729314575355</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>44.06674438023479</v>
+        <v>44.06674438013168</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>51.19213623445567</v>
+        <v>51.19213623445044</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.88248959438009</v>
+        <v>27.88248959439294</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.2966646560087</v>
+        <v>40.29666465609112</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.39650226453374</v>
+        <v>44.39650226462309</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>36.2400179464381</v>
+        <v>36.24001794634226</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.79360089975181</v>
+        <v>45.79360089973214</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.83283650372924</v>
+        <v>48.8328365037422</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.54369652352044</v>
+        <v>52.5436965234861</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>59.07046406389519</v>
+        <v>59.07046406389894</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>61.70943412772986</v>
+        <v>61.70943412771543</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>41.57171040492595</v>
+        <v>41.57171040487934</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>58.03741890310879</v>
+        <v>58.03741890301318</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>63.74450806233948</v>
+        <v>63.74450806235392</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-11.92480134059737</v>
+        <v>-11.9248013405403</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.24187788784717</v>
+        <v>21.2418778879313</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.3665489954568</v>
+        <v>28.36654899549341</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5.057971239534016</v>
+        <v>5.057971239537995</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.4697832702643</v>
+        <v>17.46978327028284</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.56915117859409</v>
+        <v>21.56915117860955</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>13.41360068011123</v>
+        <v>13.41360068006837</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.9654393441284</v>
+        <v>22.96543934416899</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.00433116537953</v>
+        <v>26.00433116534406</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.71341212834112</v>
+        <v>29.71341212832862</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>36.23927257062972</v>
+        <v>36.23927257062563</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>38.87791860021285</v>
+        <v>38.87791860018625</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>18.74212642310396</v>
+        <v>18.74212642305905</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>35.20574127810333</v>
+        <v>35.20574127811572</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>40.91200701022886</v>
+        <v>40.91200701014724</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-5.334132216503473</v>
+        <v>-5.334132216470504</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.83533913004145</v>
+        <v>27.83533913005987</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.96092556409882</v>
+        <v>34.96092556414452</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11.64971914999215</v>
+        <v>11.64971915002137</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.06348791742913</v>
+        <v>24.06348791751678</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.16335484910552</v>
+        <v>28.16335484911302</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>20.00684754629855</v>
+        <v>20.0068475463455</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.56012024101664</v>
+        <v>29.56012024110975</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.59940170003152</v>
+        <v>32.59940170012111</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.30927707998545</v>
+        <v>36.30927708000216</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.83594634168217</v>
+        <v>42.8359463417414</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.47495780955261</v>
+        <v>45.47495780954874</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.33733694476756</v>
+        <v>25.33733694478473</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.80286024076837</v>
+        <v>41.80286024076712</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>47.51004278176252</v>
+        <v>47.51004278173751</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>7.399079241581479</v>
+        <v>7.399079241566813</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.56803939078337</v>
+        <v>40.56803939074346</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.69360746531503</v>
+        <v>47.69360746527546</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.38410442594089</v>
+        <v>24.38410442597761</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.79791986976942</v>
+        <v>36.79791986982774</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>40.89789022292631</v>
+        <v>40.89789022297883</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>32.7415365902251</v>
+        <v>32.74153659021452</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.29481751842341</v>
+        <v>42.29481751848105</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>45.33414505611277</v>
+        <v>45.33414505612232</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.04519339260149</v>
+        <v>49.04519339256545</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>55.5718087561164</v>
+        <v>55.57180875613197</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>58.21085999460273</v>
+        <v>58.21085999465366</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.07349557943074</v>
+        <v>38.07349557947485</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>54.53884627538649</v>
+        <v>54.53884627535761</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>60.24606773205379</v>
+        <v>60.24606773202548</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-0.3617634512689953</v>
+        <v>-0.3617634512775219</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>32.80508658112272</v>
+        <v>32.80508658114921</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>39.92970816670287</v>
+        <v>39.92970816664602</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>16.62154975223165</v>
+        <v>16.62154975222983</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.03358275939989</v>
+        <v>29.03358275939808</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.13289301815767</v>
+        <v>33.13289301817905</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>24.97737387907818</v>
+        <v>24.97737387908841</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.52938923032933</v>
+        <v>34.52938923031864</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.5682432576276</v>
+        <v>37.5682432576301</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>41.27717321152305</v>
+        <v>41.27717321148587</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>47.80312740980899</v>
+        <v>47.80312740973771</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>50.44174452216622</v>
+        <v>50.44174452211801</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.30563405697636</v>
+        <v>30.30563405692907</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>46.76953117790377</v>
+        <v>46.76953117784193</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>52.47572208571988</v>
+        <v>52.47572208570533</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>6.229595626050003</v>
+        <v>6.22959562606626</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>39.39923777873354</v>
+        <v>39.39923777875161</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>46.52477468032031</v>
+        <v>46.52477468033804</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.21398764619288</v>
+        <v>23.21398764619459</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.62797739266806</v>
+        <v>35.62797739267886</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>39.72778666346277</v>
+        <v>39.72778666345913</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>31.5713107350591</v>
+        <v>31.57131073503352</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>41.12476012034993</v>
+        <v>41.12476012024636</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>44.1640037771525</v>
+        <v>44.16400377716751</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>47.87372813740386</v>
+        <v>47.87372813736486</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>54.40049115636349</v>
+        <v>54.40049115628175</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>57.03947370162585</v>
+        <v>57.0394737016404</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>36.90153454797608</v>
+        <v>36.9015345479538</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>53.36734011200222</v>
+        <v>53.36734011198699</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>59.07444781350442</v>
+        <v>59.07444781352102</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>18.96220853844601</v>
+        <v>18.96220853851013</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>52.1313394828553</v>
+        <v>52.13133948286348</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>59.25685802688871</v>
+        <v>59.25685802686324</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.94777435507613</v>
+        <v>35.9477743550725</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.36181076952094</v>
+        <v>48.36181076954618</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>52.46172346179866</v>
+        <v>52.46172346182776</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>44.30540119635985</v>
+        <v>44.30540119629528</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>53.8588588080173</v>
+        <v>53.85885880799184</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>56.89814854365487</v>
+        <v>56.89814854364509</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>60.60904586644413</v>
+        <v>60.60904586640366</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>67.13575498296733</v>
+        <v>67.13575498298927</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>69.7747772985433</v>
+        <v>69.77477729857831</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49.63709461326481</v>
+        <v>49.63709461329937</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>66.10272756285461</v>
+        <v>66.1027275628728</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>71.80987418004723</v>
+        <v>71.80987418007633</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-2.362055858587166</v>
+        <v>-2.362055858691871</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>30.80454985096866</v>
+        <v>30.80454985093649</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>37.92886561567535</v>
+        <v>37.9288656156608</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>14.62097007291867</v>
+        <v>14.62097007293982</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>27.03296972976863</v>
+        <v>27.03296972982047</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.13206006604456</v>
+        <v>31.13206006603842</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.97661599510092</v>
+        <v>22.97661599512127</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>32.52862718495611</v>
+        <v>32.52862718502375</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.56732245621252</v>
+        <v>35.56732245624367</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.27619030990205</v>
+        <v>39.27619030994616</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>45.80211502976941</v>
+        <v>45.80211502980443</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>48.44060649315485</v>
+        <v>48.44060649306685</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.30469920085237</v>
+        <v>28.30469920089307</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>44.76852432474378</v>
+        <v>44.76852432482814</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>50.47445640730221</v>
+        <v>50.4744564073461</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>4.228968026857036</v>
+        <v>4.228968026799738</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>37.39836584346698</v>
+        <v>37.39836584344515</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>44.52359687785416</v>
+        <v>44.52359687783324</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>21.21307273922354</v>
+        <v>21.21307273919375</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.62702912352971</v>
+        <v>33.6270291235388</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>37.72661843255501</v>
+        <v>37.72661843253432</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.57021761260772</v>
+        <v>29.570217612605</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>39.12366282942308</v>
+        <v>39.12366282942331</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>42.16274769949096</v>
+        <v>42.1627476995087</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>45.87240998462185</v>
+        <v>45.87240998462549</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>52.39914352002084</v>
+        <v>52.39914351999037</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>55.03800039566578</v>
+        <v>55.03800039563349</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.90026445802822</v>
+        <v>34.90026445800594</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>51.3659980218731</v>
+        <v>51.36599802189151</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>57.07284684627369</v>
+        <v>57.07284684624493</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.96138588080975</v>
+        <v>16.96138588082509</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>50.13027249212517</v>
+        <v>50.13027249213256</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>57.25548516829473</v>
+        <v>57.25548516828938</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>33.94666433266421</v>
+        <v>33.94666433263613</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>46.3606673798764</v>
+        <v>46.360667379839</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>50.46036011076681</v>
+        <v>50.46036011075886</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>42.30411297098327</v>
+        <v>42.30411297093609</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>51.85756640770988</v>
+        <v>51.85756640773546</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>54.8966973595701</v>
+        <v>54.8966973595776</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>58.60753258167834</v>
+        <v>58.60753258166379</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>65.13421221185227</v>
+        <v>65.13421221179782</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>67.77310885981034</v>
+        <v>67.77310885973758</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>47.63562939343613</v>
+        <v>47.63562939335894</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>64.10119033805232</v>
+        <v>64.10119033799423</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>69.80807808562234</v>
+        <v>69.8080780856278</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-9.964529279238388</v>
+        <v>-9.964529279201212</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.20205503280657</v>
+        <v>23.20205503280714</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>30.32663494026234</v>
+        <v>30.32663494025507</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>7.018158536303407</v>
+        <v>7.018158536288173</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.42996326971046</v>
+        <v>19.42996326970591</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.52933530620327</v>
+        <v>23.5293353062135</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>15.37377222134591</v>
+        <v>15.3737722213517</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.92561921441824</v>
+        <v>24.92561921445132</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.96451333308879</v>
+        <v>27.96451333312722</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>31.67338503557982</v>
+        <v>31.67338503553116</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>38.1992354740372</v>
+        <v>38.19923547405402</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>40.8378544067467</v>
+        <v>40.83785440671328</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>20.70207292642884</v>
+        <v>20.70207292640406</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>37.16562404736077</v>
+        <v>37.16562404733234</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>42.87188093079168</v>
+        <v>42.87188093080646</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-3.374124351366628</v>
+        <v>-3.374124351322063</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.79525208869085</v>
+        <v>29.79525208869449</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.92074730123737</v>
+        <v>36.9207473012401</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>13.60964221442406</v>
+        <v>13.60964221442338</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.02340369386285</v>
+        <v>26.02340369387376</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.12327473986862</v>
+        <v>30.12327473979336</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.96675485892125</v>
+        <v>21.96675485894763</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.52003589296543</v>
+        <v>31.52003589300385</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>34.55931963847625</v>
+        <v>34.55931963849399</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>38.26898576067434</v>
+        <v>38.26898576069981</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>44.79564502396384</v>
+        <v>44.79564502393519</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.43462938655522</v>
+        <v>47.43462938649382</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.29701921765035</v>
+        <v>27.29701921764989</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>43.76247879977062</v>
+        <v>43.76247879978176</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>49.46965247095532</v>
+        <v>49.46965247095555</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>9.359075000893416</v>
+        <v>9.359075001039731</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>42.52794025250749</v>
+        <v>42.52794025254035</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>49.65341709859295</v>
+        <v>49.6534170986257</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.34401534989876</v>
+        <v>26.3440153498252</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>38.75782350772862</v>
+        <v>38.75782350772032</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.85779797311294</v>
+        <v>42.85779797308679</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.70143177416104</v>
+        <v>34.70143177412477</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>44.25472104236461</v>
+        <v>44.2547210424011</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>47.29405086701387</v>
+        <v>47.29405086709413</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>51.00488993038026</v>
+        <v>51.00488993026578</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>57.53149529526227</v>
+        <v>57.53149529524056</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>60.17051942872978</v>
+        <v>60.17051942870067</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>40.03316570708851</v>
+        <v>40.03316570705134</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>56.49845269255376</v>
+        <v>56.49845269256842</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>62.2056652808394</v>
+        <v>62.20566528085759</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-4.110105288423494</v>
+        <v>-4.110105288412353</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.05700663644574</v>
+        <v>29.05700663642709</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.18167318614324</v>
+        <v>36.18167318613756</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>12.8731714646808</v>
+        <v>12.87317146468012</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.28526859917541</v>
+        <v>25.28526859917519</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.38460473965062</v>
+        <v>29.38460473971064</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.22899738196053</v>
+        <v>21.22899738199509</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>30.78106301417198</v>
+        <v>30.78106301423428</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>33.81993618485158</v>
+        <v>33.81993618483044</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.52893273975779</v>
+        <v>37.52893273974006</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>44.05492340670286</v>
+        <v>44.05492340672832</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>46.69355800095114</v>
+        <v>46.6935580009807</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.55736519133108</v>
+        <v>26.55736519130254</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>43.02133882298232</v>
+        <v>43.02133882299744</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>48.72757211986401</v>
+        <v>48.72757211989379</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>2.480980188591719</v>
+        <v>2.480980188599563</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.65088425832504</v>
+        <v>35.65088425834334</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>42.77646613093781</v>
+        <v>42.776466130956</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>19.46533575142643</v>
+        <v>19.46533575142211</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>31.87938964195085</v>
+        <v>31.87938964202793</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.97922479779832</v>
+        <v>35.97922479783652</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.82266064128918</v>
+        <v>27.82266064128202</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.37616031898675</v>
+        <v>37.37616031896322</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>40.41542312152602</v>
+        <v>40.41542312159901</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>44.12521409924442</v>
+        <v>44.12521409922816</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>50.65201359366073</v>
+        <v>50.65201359364242</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>53.29101362309767</v>
+        <v>53.29101362307607</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>33.15299211390025</v>
+        <v>33.15299211382442</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>49.61887420668391</v>
+        <v>49.61887420667334</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>55.32602430386702</v>
+        <v>55.32602430384109</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.21383953052292</v>
+        <v>15.21383953055214</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>48.38323238950316</v>
+        <v>48.38323238946508</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>55.50879590414432</v>
+        <v>55.50879590413534</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>32.19936889912206</v>
+        <v>32.19936889911217</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>44.61346945863544</v>
+        <v>44.61346945862464</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>48.7134080375066</v>
+        <v>48.71340803751615</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>40.55699755015915</v>
+        <v>40.55699755017928</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>50.11050545466126</v>
+        <v>50.11050545471777</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>53.1498143371408</v>
+        <v>53.14981433716376</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>56.86077828425378</v>
+        <v>56.86077828422161</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>63.3875238762855</v>
+        <v>63.38752387629209</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>66.02656367721157</v>
+        <v>66.02656367714347</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>45.88879863468172</v>
+        <v>45.88879863464796</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>62.35450811398651</v>
+        <v>62.35450811389602</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>68.06169712838162</v>
+        <v>68.0616971283972</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1.90451787552978</v>
+        <v>1.90451787561209</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>35.07150384561599</v>
+        <v>35.07150384558757</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>42.1959397463073</v>
+        <v>42.19593974630298</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>18.88794283273647</v>
+        <v>18.88794283276217</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>31.30009943722063</v>
+        <v>31.30009943728566</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>35.39930866056339</v>
+        <v>35.399308660595</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.24375224966694</v>
+        <v>27.24375224964171</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>36.79588692875232</v>
+        <v>36.79588692882713</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>39.83466474496196</v>
+        <v>39.83466474495309</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>43.54347450350518</v>
+        <v>43.54347450351803</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>50.06948421690707</v>
+        <v>50.06948421696175</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>52.70802474782646</v>
+        <v>52.70802474789535</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.57178420261731</v>
+        <v>32.57178420256501</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>49.03581473128848</v>
+        <v>49.03581473131418</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>54.74187751932742</v>
+        <v>54.74187751938017</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.494998945804685</v>
+        <v>8.494998945829014</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>41.66477704950977</v>
+        <v>41.66477704946452</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>48.79012822869309</v>
+        <v>48.79012822867058</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.47950266468102</v>
+        <v>25.47950266468841</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>37.89361601896631</v>
+        <v>37.89361601899348</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>41.99332422287794</v>
+        <v>41.99332422289227</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>33.83681104061939</v>
+        <v>33.83681104055732</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>43.39037976367295</v>
+        <v>43.39037976364021</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>46.42954718396514</v>
+        <v>46.42954718396719</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>50.13915138483797</v>
+        <v>50.13915138477056</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>56.66596992297899</v>
+        <v>56.66596992302242</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>59.30487587031813</v>
+        <v>59.30487587028686</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>39.1668066641498</v>
+        <v>39.16680666423711</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>55.63274565461562</v>
+        <v>55.63274565457378</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>61.33972519573238</v>
+        <v>61.33972519572511</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>21.22730765674361</v>
+        <v>21.22730765679863</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>54.39657455016878</v>
+        <v>54.39657455018879</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>61.52190736490103</v>
+        <v>61.52190736492649</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.21298511781184</v>
+        <v>38.21298511778092</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>50.62714513483193</v>
+        <v>50.62714513477373</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>54.72695675923261</v>
+        <v>54.72695675920032</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>46.57059725628481</v>
+        <v>46.57059725619068</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>56.1241741992519</v>
+        <v>56.12417419925599</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>59.16338770024105</v>
+        <v>59.16338770028925</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>62.87416485557718</v>
+        <v>62.87416485561708</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>69.4009294876481</v>
+        <v>69.4009294876406</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>72.03987520640247</v>
+        <v>72.0398752064276</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>51.90206248086996</v>
+        <v>51.90206248094454</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>68.36782884802049</v>
+        <v>68.36782884809348</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>74.07484730976635</v>
+        <v>74.0748473098207</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-13.62284468230247</v>
+        <v>-13.62284468233271</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.54328684951064</v>
+        <v>19.54328684952906</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.6677383113448</v>
+        <v>26.66773831129523</v>
       </c>
     </row>
     <row r="410">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>15.77090514562632</v>
+        <v>15.77090514564451</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.87017165515578</v>
+        <v>19.87017165516669</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>11.71465249797335</v>
+        <v>11.71465249800803</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.26643965132813</v>
+        <v>21.26643965133916</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.30526221364027</v>
+        <v>24.30526221366414</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.01398493322835</v>
+        <v>28.01398493318287</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>34.53976482519919</v>
+        <v>34.53976482519555</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>37.1783300324124</v>
+        <v>37.17833003240854</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>17.04286551925098</v>
+        <v>17.04286551924746</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>33.50617542152428</v>
+        <v>33.50617542143321</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>39.21234264120254</v>
+        <v>39.21234264113728</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-7.032708121611687</v>
+        <v>-7.032708121596794</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.13621550264633</v>
+        <v>26.13621550264303</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.2615822633994</v>
+        <v>33.26158226335188</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>9.950385648144778</v>
+        <v>9.950385648130226</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.36407715129927</v>
+        <v>22.36407715127722</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.46384267577456</v>
+        <v>26.46384267586574</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>18.30736672717125</v>
+        <v>18.30736672716192</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.86058790162268</v>
+        <v>27.86058790162996</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.89980009339239</v>
+        <v>30.89980009337124</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>34.60931723276541</v>
+        <v>34.60931723278132</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>41.13590594016897</v>
+        <v>41.13590594026333</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>43.77483657516915</v>
+        <v>43.77483657526601</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.63754339144781</v>
+        <v>23.63754339147146</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>40.10276173574071</v>
+        <v>40.10276173572252</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>45.80984573828765</v>
+        <v>45.80984573831152</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>5.700289333179843</v>
+        <v>5.70028933311254</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>38.8687017722484</v>
+        <v>38.86870177228842</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>45.99405017630998</v>
+        <v>45.99405017630271</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.68455685642231</v>
+        <v>22.68455685643766</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.09829503092907</v>
+        <v>35.09829503093805</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.19816398032354</v>
+        <v>39.19816398034878</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.04184171360179</v>
+        <v>31.04184171360008</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>40.59507111758761</v>
+        <v>40.59507111761319</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>43.63432939338814</v>
+        <v>43.63432939343043</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>47.3450194477724</v>
+        <v>47.34501944777229</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>53.87155425668298</v>
+        <v>53.87155425665377</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>56.51052466535894</v>
+        <v>56.51052466535701</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>36.37348792139527</v>
+        <v>36.37348792143199</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>52.83853367256209</v>
+        <v>52.83853367259313</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>58.54565659833075</v>
+        <v>58.5456565983345</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-8.359968515276375</v>
+        <v>-8.359968515111074</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.80664485183171</v>
+        <v>24.80664485183853</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.93098408767411</v>
+        <v>31.93098408764978</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>8.622580973338348</v>
+        <v>8.622580973382004</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.03457957729085</v>
+        <v>21.03457957741977</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.13367392767156</v>
+        <v>25.13367392771021</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>16.97816481732797</v>
+        <v>16.97816481728579</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.53017257428427</v>
+        <v>26.53017257429279</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.56887435729947</v>
+        <v>29.56887435736609</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.27766362337296</v>
+        <v>33.27766362334465</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>39.803577491974</v>
+        <v>39.80357749198934</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>42.44207859858976</v>
+        <v>42.44207859865183</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>22.30625554445554</v>
+        <v>22.3062555444286</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.76998173429568</v>
+        <v>38.76998173435673</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>44.47596155814072</v>
+        <v>44.47596155809934</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1.769598928450829</v>
+        <v>-1.769598928447646</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.39980655249689</v>
+        <v>31.39980655241913</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.52506107062491</v>
+        <v>38.52506107059854</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>15.21402931193755</v>
+        <v>15.21402931196529</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.62798464304909</v>
+        <v>27.62798464302181</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>31.72757798320446</v>
+        <v>31.727577983199</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>23.57111210409515</v>
+        <v>23.57111210409072</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.12455388879947</v>
+        <v>33.12455388880959</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.16364528250925</v>
+        <v>36.16364528252358</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>39.87322899579554</v>
+        <v>39.87322899576655</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>46.39995168213737</v>
+        <v>46.39995168214021</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.03881820764683</v>
+        <v>49.03881820766047</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.9011665021951</v>
+        <v>28.90116650214644</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.36680113862938</v>
+        <v>45.36680113864416</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>51.07369772080993</v>
+        <v>51.07369772080675</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>10.96294124128291</v>
+        <v>10.96294124132702</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.13183551747589</v>
+        <v>44.13183551754888</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>51.25707168315567</v>
+        <v>51.25707168327209</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>27.94774321020963</v>
+        <v>27.94774321014232</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.36174520254711</v>
+        <v>40.36174520261987</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>44.46144197057457</v>
+        <v>44.46144197064187</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.30512977815668</v>
+        <v>36.30512977816055</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>45.8585797822527</v>
+        <v>45.85857978227476</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>48.89771726184846</v>
+        <v>48.89771726184959</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>52.60847390495927</v>
+        <v>52.60847390498451</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>59.13514268662423</v>
+        <v>59.13514268660286</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>61.77404898734117</v>
+        <v>61.77404898736368</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>41.63665374567312</v>
+        <v>41.63665374564435</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>58.10211576836865</v>
+        <v>58.10211576835103</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>63.80905127955496</v>
+        <v>63.80905127948516</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-12.65256090383106</v>
+        <v>-12.65256090377683</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.51385307156805</v>
+        <v>20.51385307156567</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.63824270715019</v>
+        <v>27.6382427071229</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.329691777041479</v>
+        <v>4.329691776963262</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.74150120001785</v>
+        <v>16.74150119997784</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.84070349995715</v>
+        <v>20.8407034999194</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>12.68521456593679</v>
+        <v>12.68521456590598</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.23706898326099</v>
+        <v>22.23706898327429</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.27584403008347</v>
+        <v>25.27584403011939</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.98467359236485</v>
+        <v>28.98467359235848</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.51049980693152</v>
+        <v>35.51049980694471</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>38.14903634446601</v>
+        <v>38.1490363445033</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>18.01346828784164</v>
+        <v>18.01346828786381</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.47692732865595</v>
+        <v>34.4769273286672</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>40.18301215136022</v>
+        <v>40.18301215137841</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-6.062565917955691</v>
+        <v>-6.062565917894073</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>27.106640175876</v>
+        <v>27.10664017588873</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>34.23194509743949</v>
+        <v>34.23194509747428</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.92076547991177</v>
+        <v>10.92076547990813</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.33453163476928</v>
+        <v>23.33453163483476</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.43423293157899</v>
+        <v>27.4342329315608</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>19.27778721866013</v>
+        <v>19.27778721866922</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.83107566772889</v>
+        <v>28.8310756677107</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.87024033102681</v>
+        <v>31.8702403310159</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.57986432427741</v>
+        <v>35.57986432430845</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.10649935958757</v>
+        <v>42.10649935964931</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>44.74540131865488</v>
+        <v>44.74540131859349</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.60800459406606</v>
+        <v>24.60800459409528</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>41.07337209063813</v>
+        <v>41.07337209059641</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>46.7803736809784</v>
+        <v>46.78037368097681</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>6.670445164657952</v>
+        <v>6.67044516466159</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.83914006945507</v>
+        <v>39.83914006948781</v>
       </c>
     </row>
     <row r="529">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>23.65495030824251</v>
+        <v>23.65495030821352</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.06876313430267</v>
+        <v>36.06876313430097</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>40.16856785549668</v>
+        <v>40.16856785550577</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>32.01227583180297</v>
+        <v>32.01227583177022</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.56557250919944</v>
+        <v>41.56557250926834</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>44.60478325633686</v>
+        <v>44.60478325635346</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.31558016998575</v>
+        <v>48.31558017005669</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.84216130530454</v>
+        <v>54.84216130533547</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>57.48110303789427</v>
+        <v>57.48110303787972</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>37.34396275622633</v>
+        <v>37.34396275627056</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>53.80915765500571</v>
+        <v>53.80915765495898</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>59.51619817055654</v>
+        <v>59.51619817055847</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-16.37842016472872</v>
+        <v>-16.3784201646754</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.787283569466</v>
+        <v>16.78728356943587</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>23.91151815787281</v>
+        <v>23.91151815787486</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.6031967018435473</v>
+        <v>0.6031967018510507</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.0147428737149</v>
+        <v>13.01474287371694</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.11381965341853</v>
+        <v>17.11381965344536</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.958497996227027</v>
+        <v>8.958497996247605</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.51014959930045</v>
+        <v>18.51014959931966</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.54883408420379</v>
+        <v>21.5488340842695</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.25760449759956</v>
+        <v>25.25760449760718</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.78328776577074</v>
+        <v>31.7832877657654</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>34.42176681682518</v>
+        <v>34.42176681676129</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.28669261536594</v>
+        <v>14.28669261542631</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.74977380310508</v>
+        <v>30.74977380312133</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>36.45572398687942</v>
+        <v>36.45572398689124</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-9.788356604707143</v>
+        <v>-9.788356604710781</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.38013919580952</v>
+        <v>23.38013919578224</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.50528905935572</v>
+        <v>30.50528905933708</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.194338966712838</v>
+        <v>7.194338966692715</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.60784183128839</v>
+        <v>19.60784183129009</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.70741760536349</v>
+        <v>23.7074176054142</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>15.55113918368703</v>
+        <v>15.55113918373978</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.10422479069745</v>
+        <v>25.10422479072473</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.14329888997883</v>
+        <v>28.14329889002089</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.85286371617245</v>
+        <v>31.85286371611243</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>38.37935578981488</v>
+        <v>38.37935578976372</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>41.01820025852508</v>
+        <v>41.01820025853759</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.8812974162663</v>
+        <v>20.8812974163029</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.34628702365966</v>
+        <v>37.34628702363783</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>43.05315396547063</v>
+        <v>43.05315396548859</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>2.944544233535101</v>
+        <v>2.944544233590126</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.11252885603891</v>
+        <v>36.11252885599889</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>43.23766036569701</v>
+        <v>43.23766036568973</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>19.92841352687491</v>
+        <v>19.92841352688946</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.34196306181956</v>
+        <v>32.34196306179773</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>36.44164226184931</v>
+        <v>36.44164226185295</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.285517528711</v>
+        <v>28.285517528701</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.83861136350707</v>
+        <v>37.83861136355982</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>40.87773154785678</v>
+        <v>40.87773154797775</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>44.58846926261661</v>
+        <v>44.58846926263298</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>51.1149074383918</v>
+        <v>51.11490743840635</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>53.75379168162259</v>
+        <v>53.75379168166806</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>33.61714527058324</v>
+        <v>33.61714527062144</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>50.08196228624273</v>
+        <v>50.08196228622818</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>55.78886815646602</v>
+        <v>55.7888681564733</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-8.437998186048628</v>
+        <v>-8.437998185986554</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.72907206783428</v>
+        <v>24.72907206785748</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.85384693624438</v>
+        <v>31.85384693623324</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>8.54513224602373</v>
+        <v>8.545132246012134</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.95712507750862</v>
+        <v>20.95712507759389</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.05657164095065</v>
+        <v>25.0565716409452</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>16.90090472700091</v>
+        <v>16.90090472699909</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>26.45288469901412</v>
+        <v>26.45288469904186</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.49183433112977</v>
+        <v>29.49183433117229</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.2008628539762</v>
+        <v>33.2008628540385</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.72681465664833</v>
+        <v>39.7268146566356</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>42.36550017867454</v>
+        <v>42.36550017866226</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.22938237684876</v>
+        <v>22.22938237684024</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.69322360695342</v>
+        <v>38.69322360697764</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>44.39958964324988</v>
+        <v>44.39958964329422</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-1.847422486092466</v>
+        <v>-1.847422486102811</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.32243991529025</v>
+        <v>31.32243991529764</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>38.44813011934853</v>
+        <v>38.44813011936672</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>15.13678673479557</v>
+        <v>15.13678673480944</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.55073632589368</v>
+        <v>27.55073632597622</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.65068191841589</v>
+        <v>31.65068191841953</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>23.49405818623665</v>
+        <v>23.49405818616218</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.04747220630803</v>
+        <v>33.04747220629359</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.08681148036781</v>
+        <v>36.08681148034258</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>39.79663442893137</v>
+        <v>39.79663442894967</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>46.32339506137394</v>
+        <v>46.32339506134473</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>48.9624460250826</v>
+        <v>48.96244602514103</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.8244995153576</v>
+        <v>28.82449951532907</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.29024921006713</v>
+        <v>45.29024921006747</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>50.99753206432739</v>
+        <v>50.99753206432329</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>10.88575228744604</v>
+        <v>10.88575228756803</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>44.05510348506969</v>
+        <v>44.055103485088</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>51.18077532729818</v>
+        <v>51.18077532736025</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.87113532995646</v>
+        <v>27.87113532999023</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>40.28513159650639</v>
+        <v>40.28513159651196</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>44.38518061100636</v>
+        <v>44.38518061106321</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>36.22871054962773</v>
+        <v>36.22871054960056</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>45.78213280206249</v>
+        <v>45.78213280211536</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>48.82151815496933</v>
+        <v>48.82151815504868</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>52.53251407559786</v>
+        <v>52.53251407567119</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>59.05922080826052</v>
+        <v>59.05922080824892</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>61.69831154322547</v>
+        <v>61.69831154324832</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>41.56062149186617</v>
+        <v>41.56062149182331</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>58.02619858165154</v>
+        <v>58.0261985816902</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>63.73352035117931</v>
+        <v>63.73352035119488</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-11.09132903712203</v>
+        <v>-11.09132903709975</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.07502370633096</v>
+        <v>22.07502370634232</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.19940477885108</v>
+        <v>29.19940477888018</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.890937333463047</v>
+        <v>5.890937333479645</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>18.30280104493692</v>
+        <v>18.30280104490099</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>22.40197819823026</v>
+        <v>22.40197819824276</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.2464535210513</v>
+        <v>14.24645352105118</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.79834949114705</v>
+        <v>23.79834949120719</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.83710911796071</v>
+        <v>26.837109117998</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.54584149456297</v>
+        <v>30.54584149449851</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.07168390151865</v>
+        <v>37.07168390145851</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>39.7102120057949</v>
+        <v>39.71021200581173</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>19.57459153477679</v>
+        <v>19.57459153488422</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.03809016483159</v>
+        <v>36.03809016479396</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>41.74415846213024</v>
+        <v>41.74415846211683</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-4.50143689735695</v>
+        <v>-4.501436897287601</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.66770794439582</v>
+        <v>28.66770794441583</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.793004304321</v>
+        <v>35.79300430431918</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>12.48190819317925</v>
+        <v>12.48190819324474</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.89572862315173</v>
+        <v>24.89572862321176</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.99540477601487</v>
+        <v>28.995404775996</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>20.83892331916637</v>
+        <v>20.83892331918058</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.39225331112458</v>
+        <v>30.3922533111754</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.4314025555053</v>
+        <v>33.43140255553327</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.14092937027452</v>
+        <v>37.14092937027372</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.66758059270727</v>
+        <v>43.6675805926926</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>46.30647411869278</v>
+        <v>46.30647411863366</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>26.16902499344927</v>
+        <v>26.16902499347667</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.63443206568262</v>
+        <v>42.63443206565522</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>48.34141712979236</v>
+        <v>48.34141712974711</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>8.231257444567508</v>
+        <v>8.231257444595247</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.39989109158999</v>
+        <v>41.39989109156225</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>48.52516909694178</v>
+        <v>48.5251690969411</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.21577626892098</v>
+        <v>25.21577626896782</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.62964336410936</v>
+        <v>37.62964336412573</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.72942294369828</v>
+        <v>41.72942294370556</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.57309517187831</v>
+        <v>33.57309517184329</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>43.12643338749488</v>
+        <v>43.12643338748192</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.16562871749635</v>
+        <v>46.16562871746224</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>49.87632845281551</v>
+        <v>49.87632845280073</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>56.40292577338629</v>
+        <v>56.40292577336275</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>59.04185907415659</v>
+        <v>59.04185907413897</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>38.90466639928341</v>
+        <v>38.9046663993655</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>55.36990086816228</v>
+        <v>55.36990086817137</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>61.07692485887775</v>
+        <v>61.07692485895551</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>3.417471636258586</v>
+        <v>3.417471636368635</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.58485562141526</v>
+        <v>36.58485562148915</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>43.70959178356667</v>
+        <v>43.70959178357826</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>20.40125613586575</v>
+        <v>20.40125613589463</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>32.81351729962545</v>
+        <v>32.81351729974322</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.91290872786304</v>
+        <v>36.91290872791556</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.75724688599961</v>
+        <v>28.75724688593151</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>38.30944161597607</v>
+        <v>38.30944161596709</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.3483560347364</v>
+        <v>41.34835603470547</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>45.05726127126171</v>
+        <v>45.05726127125</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>51.58333303163975</v>
+        <v>51.58333303165101</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>54.22199353166216</v>
+        <v>54.22199353171173</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.08547624820447</v>
+        <v>34.08547624820436</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.54967323863546</v>
+        <v>50.54967323864354</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>56.25596886551328</v>
+        <v>56.2559688655126</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>10.00844202499285</v>
+        <v>10.00844202512063</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.17861816658397</v>
+        <v>43.17861816665764</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>50.30426965491948</v>
+        <v>50.3042696548972</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.99330533503063</v>
+        <v>26.99330533508554</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>39.40752326580774</v>
+        <v>39.40752326585969</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>43.50741370942011</v>
+        <v>43.50741370942897</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>35.35079506104215</v>
+        <v>35.35079506099088</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>44.90442384575589</v>
+        <v>44.90442384580898</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>47.94372789622354</v>
+        <v>47.94372789628629</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>51.65342755894174</v>
+        <v>51.65342755891639</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>58.18030815156065</v>
+        <v>58.18030815165535</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>60.81933408755968</v>
+        <v>60.81933408760766</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>40.68098809910985</v>
+        <v>40.68098809911554</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>57.14709356051956</v>
+        <v>57.14709356048694</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>62.85430598889864</v>
+        <v>62.85430598894992</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>22.74099001283729</v>
+        <v>22.74099001291403</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>55.91065493611426</v>
+        <v>55.91065493611789</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>63.03628806275297</v>
+        <v>63.03628806283699</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>39.72702712025794</v>
+        <v>39.72702712027363</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>52.14129171681803</v>
+        <v>52.14129171684077</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>56.24128558177664</v>
+        <v>56.24128558184087</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>48.0848206005745</v>
+        <v>48.08482060057155</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>57.6384576091002</v>
+        <v>57.63845760923162</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>60.67780773845287</v>
+        <v>60.67780773847811</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>64.3886803847888</v>
+        <v>64.38868038482256</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>70.91550707243685</v>
+        <v>70.91550707248494</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>73.55457277925892</v>
+        <v>73.55457277932634</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>53.41648327144763</v>
+        <v>53.41648327141148</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>69.88241611083753</v>
+        <v>69.88241611087584</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>75.58966745466476</v>
+        <v>75.58966745472149</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-3.433967530594952</v>
+        <v>-3.433967530644974</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.73240389898762</v>
+        <v>29.73240389895919</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.85700382114474</v>
+        <v>36.8570038210356</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>13.54903541440409</v>
+        <v>13.54903541438977</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.96081003819392</v>
+        <v>25.96081003820256</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.06013456800871</v>
+        <v>30.06013456805168</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>21.90471044552782</v>
+        <v>21.90471044546824</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.45652292460544</v>
+        <v>31.45652292462954</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>34.49538380839691</v>
+        <v>34.49538380849559</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.20433094407257</v>
+        <v>38.2043309440961</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>44.73016437265049</v>
+        <v>44.7301643727004</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>47.36877922297855</v>
+        <v>47.36877922308791</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>27.23301218092933</v>
+        <v>27.23301218090215</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>43.69659270774694</v>
+        <v>43.6965927077059</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>49.402784813445</v>
+        <v>49.40278481349843</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>3.156912948890625</v>
+        <v>3.156912948874709</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.32607645810627</v>
+        <v>36.32607645812878</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>43.45159169207123</v>
+        <v>43.45159169195641</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>20.14099468116762</v>
+        <v>20.1409946812879</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>32.55472601574853</v>
+        <v>32.55472601578695</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.6545495593849</v>
+        <v>36.65454955942151</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.49816864989167</v>
+        <v>28.49816864999172</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>38.05141514121043</v>
+        <v>38.0514151411911</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>41.09066565492331</v>
+        <v>41.09066565491831</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>44.80040719021075</v>
+        <v>44.80040719020734</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>51.3270494277326</v>
+        <v>51.32704942781105</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>53.96602971016601</v>
+        <v>53.96602971008802</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.82843400427895</v>
+        <v>33.82843400435102</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>50.29392294411399</v>
+        <v>50.29392294408511</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>56.00103184297483</v>
+        <v>56.00103184290138</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>15.8895273272161</v>
+        <v>15.88952732724384</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>49.05817963827131</v>
+        <v>49.05817963822629</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.18367651304025</v>
+        <v>56.1836765130107</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>32.87478285736391</v>
+        <v>32.87478285729138</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.28856086296308</v>
+        <v>45.28856086296672</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>49.38848782563342</v>
+        <v>49.38848782564229</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>41.23226057530222</v>
+        <v>41.23226057525504</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>50.78551529603736</v>
+        <v>50.78551529602474</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>53.82481188700318</v>
+        <v>53.82481188700682</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>57.53572637329408</v>
+        <v>57.53572637332148</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>64.06231471081684</v>
+        <v>64.06231471084105</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>66.70133476287138</v>
+        <v>66.70133476278964</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>46.56399551713092</v>
+        <v>46.56399551712376</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>63.02931184942518</v>
+        <v>63.02931184943792</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>68.73645966130697</v>
+        <v>68.7364596613089</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-6.911880487006567</v>
+        <v>-6.9118804870193</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.25557457241665</v>
+        <v>26.2555745724187</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>33.38025004725328</v>
+        <v>33.38025004721736</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>10.07126335453187</v>
+        <v>10.07126335455733</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.4835447444908</v>
+        <v>22.48354474450717</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.58289423900043</v>
+        <v>26.58289423900679</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>18.42712414666265</v>
+        <v>18.42712414665924</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>27.97933808084735</v>
+        <v>27.97933808085849</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.01822335053236</v>
+        <v>31.01822335058351</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>34.72710732662334</v>
+        <v>34.72710732671077</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.25317756943467</v>
+        <v>41.25317756943114</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>43.89181401042298</v>
+        <v>43.89181401044867</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>23.75543228899686</v>
+        <v>23.75543228889557</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.2195463502694</v>
+        <v>40.21954635027201</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.92582832365052</v>
+        <v>45.92582832367121</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-0.3214221540738542</v>
+        <v>-0.3214221540951137</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.84882508536974</v>
+        <v>32.84882508540282</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>39.97441588245543</v>
+        <v>39.97441588248067</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>16.66280046645669</v>
+        <v>16.66280046644589</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.07703863462597</v>
+        <v>29.07703863467019</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.1768871468697</v>
+        <v>33.17688714692473</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.02016024509554</v>
+        <v>25.02016024509816</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>34.57380824333596</v>
+        <v>34.57380824338269</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>37.61308314490053</v>
+        <v>37.61308314499784</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>41.32276157407908</v>
+        <v>41.32276157408636</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>47.84964065561665</v>
+        <v>47.84964065556368</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>50.48864253209727</v>
+        <v>50.48864253205703</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.35043209790273</v>
+        <v>30.3504320979241</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>46.81645465311497</v>
+        <v>46.8164546531725</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>52.52365342702079</v>
+        <v>52.52365342706399</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>12.41154018394149</v>
+        <v>12.41154018410508</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.58127620859135</v>
+        <v>45.58127620867968</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.70684864998326</v>
+        <v>52.70684864999463</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.39693659119256</v>
+        <v>29.3969365912112</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>41.81122142666298</v>
+        <v>41.81122142667662</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>45.91117336679223</v>
+        <v>45.91117336682406</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>37.75460014456199</v>
+        <v>37.75460014453857</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>47.30825636760993</v>
+        <v>47.30825636762448</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>50.34757735416279</v>
+        <v>50.3475773542426</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>54.05842875288828</v>
+        <v>54.05842875287372</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>60.58525393106548</v>
+        <v>60.58525393104547</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>63.22429558214559</v>
+        <v>63.22429558210557</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>43.08634161411827</v>
+        <v>43.08634161418387</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>59.55219155613746</v>
+        <v>59.55219155618134</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>65.2594292542169</v>
+        <v>65.25942925427908</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-8.986894993729276</v>
+        <v>-8.986894993721659</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.17940333385762</v>
+        <v>24.17940333386206</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>31.3040352998538</v>
+        <v>31.30403529982401</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>7.995783198970106</v>
+        <v>7.995783198972379</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.40748474882058</v>
+        <v>20.40748474881876</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.50687030528239</v>
+        <v>24.50687030531605</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.35136849527611</v>
+        <v>16.3513684951672</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.9031223389511</v>
+        <v>25.90312233893382</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.94202588245013</v>
+        <v>28.94202588240988</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.65093271894965</v>
+        <v>32.65093271895942</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>39.1767305159842</v>
+        <v>39.17673051596942</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>41.81536710161036</v>
+        <v>41.81536710158649</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.67970519280469</v>
+        <v>21.67970519284505</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>38.1431541247707</v>
+        <v>38.14315412474558</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.84942135716356</v>
+        <v>43.84942135708989</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-2.396176928622832</v>
+        <v>-2.396176928649549</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.77291349129961</v>
+        <v>30.77291349127494</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.8984607772653</v>
+        <v>37.89846077727371</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>14.58758004057892</v>
+        <v>14.58758004058267</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.00123831251823</v>
+        <v>27.0012383125911</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.10112289250479</v>
+        <v>31.10112289254845</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.94466428086308</v>
+        <v>22.94466428089946</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>32.497852146471</v>
+        <v>32.49785214648828</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.53714532804621</v>
+        <v>35.53714532813125</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.24684656482326</v>
+        <v>39.24684656484304</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.77345317606454</v>
+        <v>45.77345317603384</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>48.41245519786808</v>
+        <v>48.41245519788832</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.27496460741689</v>
+        <v>28.27496460754127</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>44.74032196980487</v>
+        <v>44.7403219698342</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>50.44750600582289</v>
+        <v>50.4475060058197</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>10.33684063678685</v>
+        <v>10.33684063680549</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>43.50541986737663</v>
+        <v>43.50541986739755</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>50.63094879286528</v>
+        <v>50.63094879284527</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>27.32177140403347</v>
+        <v>27.32177140402108</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>39.7354763535087</v>
+        <v>39.73547635353428</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.83546435380514</v>
+        <v>43.83546435378717</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>35.67915940878082</v>
+        <v>35.67915940878491</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.23235550910839</v>
+        <v>45.2323555091268</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>48.27169476939422</v>
+        <v>48.27169476930463</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.98256894749987</v>
+        <v>51.98256894751511</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>58.50912166176987</v>
+        <v>58.50912166175975</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>61.14816345424354</v>
+        <v>61.14816345425298</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>41.01092931106733</v>
+        <v>41.01092931114123</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>57.47611407705971</v>
+        <v>57.47611407707107</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>63.18333702771154</v>
+        <v>63.1833370277959</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-5.243144904450116</v>
+        <v>-5.2431449044666</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.92309513254178</v>
+        <v>27.923095132576</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>35.04771211595072</v>
+        <v>35.04771211598323</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>11.73974001615681</v>
+        <v>11.73974001621149</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.15143798445807</v>
+        <v>24.15143798452208</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.25078800672292</v>
+        <v>28.25078800674679</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>20.0953605424014</v>
+        <v>20.09536054239094</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.64711182334974</v>
+        <v>29.64711182337384</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>32.68598921555609</v>
+        <v>32.68598921558247</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.39493833156426</v>
+        <v>36.39493833166613</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.92073647138646</v>
+        <v>42.92073647144103</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>45.55936174871918</v>
+        <v>45.5593617487899</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.42369328608753</v>
+        <v>25.42369328619155</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>41.88717204371493</v>
+        <v>41.88717204389148</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>47.59339291901357</v>
+        <v>47.5933929191027</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1.347590734150788</v>
+        <v>1.347590734219455</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.51662284168968</v>
+        <v>34.51662284182292</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>41.64215513988516</v>
+        <v>41.64215513995451</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>18.33155443510474</v>
+        <v>18.33155443512668</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.74520910873308</v>
+        <v>30.74520910875843</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>34.8450581486121</v>
+        <v>34.84505814863347</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.68867389309081</v>
+        <v>26.68867389309866</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.2418591824463</v>
+        <v>36.24185918245892</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.28112620758257</v>
+        <v>39.2811262075587</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>42.99086972066833</v>
+        <v>42.99086972067902</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>49.51747666773825</v>
+        <v>49.51747666772324</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>52.15646737836924</v>
+        <v>52.15646737837629</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>32.01897025283857</v>
+        <v>32.01897025281777</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>48.48435741949162</v>
+        <v>48.48435741948059</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>54.19149509140799</v>
+        <v>54.19149509138184</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.08029357638894</v>
+        <v>14.08029357642214</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>47.24881448994857</v>
+        <v>47.24881448997131</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>54.37432842769145</v>
+        <v>54.37432842769736</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.0654310773018</v>
+        <v>31.06543107736364</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>43.47913242448588</v>
+        <v>43.47913242447042</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>47.57908488304166</v>
+        <v>47.57908488305939</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>39.4228542868576</v>
+        <v>39.42285428685032</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>48.97604780764787</v>
+        <v>48.97604780763378</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>52.01536090971454</v>
+        <v>52.01536090971545</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>55.72627736991613</v>
+        <v>55.72627736992705</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>62.25283041805811</v>
+        <v>62.25283041805083</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>64.89186089822952</v>
+        <v>64.89186089832047</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>44.75462022837085</v>
+        <v>44.75462022839461</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>61.21983479145557</v>
+        <v>61.21983479150832</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>66.92701137606149</v>
+        <v>66.92701137604091</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-2.962306961479964</v>
+        <v>-2.962306961475758</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.2045729745182</v>
+        <v>30.20457297446034</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>37.32919706390508</v>
+        <v>37.32919706381846</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>14.02094978970807</v>
+        <v>14.02094978977003</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>26.43290435096377</v>
+        <v>26.432904351013</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.5322706811679</v>
+        <v>30.53227068120974</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.37670896894098</v>
+        <v>22.37670896892574</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.92866909795372</v>
+        <v>31.92866909789483</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.9675610239418</v>
+        <v>34.96756102391133</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>38.67646133592346</v>
+        <v>38.67646133587549</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>45.2023879637636</v>
+        <v>45.20238796380566</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>47.84101422405534</v>
+        <v>47.84101422406103</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>27.70494301234986</v>
+        <v>27.70494301231007</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>44.16873269076278</v>
+        <v>44.16873269083668</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>49.87498353288298</v>
+        <v>49.87498353286547</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>3.628234830982354</v>
+        <v>3.628234831015323</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.79790689736454</v>
+        <v>36.7979068973559</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>43.92344629331488</v>
+        <v>43.92344629336536</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>20.61257035558343</v>
+        <v>20.61257035554705</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.02648166212872</v>
+        <v>33.02648166210143</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>37.12634699835245</v>
+        <v>37.12634699841611</v>
       </c>
     </row>
     <row r="923">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>38.52322266166549</v>
+        <v>38.52322266170823</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>41.56250421172454</v>
+        <v>41.56250421177661</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>45.27219894858182</v>
+        <v>45.27219894860922</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>51.79893439985572</v>
+        <v>51.7989343998613</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>54.43792608973</v>
+        <v>54.43792608973546</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.3000261954803</v>
+        <v>34.30002619547484</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>50.76572432775946</v>
+        <v>50.76572432777196</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>56.47289195769962</v>
+        <v>56.47289195768506</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>16.36100788272801</v>
+        <v>16.36100788277212</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>49.53016874743729</v>
+        <v>49.53016874749618</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>56.65568977931376</v>
+        <v>56.65568977919052</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>33.34651719630266</v>
+        <v>33.34651719625752</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>45.76047517423704</v>
+        <v>45.76047517423693</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>49.86044392982545</v>
+        <v>49.86044392981931</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>41.70407909911727</v>
+        <v>41.70407909912284</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>51.25748149532454</v>
+        <v>51.25748149531601</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>54.29680912359832</v>
+        <v>54.29680912361424</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>58.00767682371701</v>
+        <v>58.00767682370245</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>64.53435837365303</v>
+        <v>64.53435837359312</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>67.17338983398507</v>
+        <v>67.17338983398371</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>47.03574640604448</v>
+        <v>47.03574640606108</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>63.50127192830392</v>
+        <v>63.50127192832211</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>69.20847847359401</v>
+        <v>69.20847847361948</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-5.0902761561597</v>
+        <v>-5.090276156094102</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.07720190216263</v>
+        <v>28.07720190212841</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.20189975344316</v>
+        <v>35.20189975345748</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>11.89300854514589</v>
+        <v>11.89300854503152</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>24.30530576484465</v>
+        <v>24.30530576489581</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.40467042923671</v>
+        <v>28.40467042920783</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>20.24889364042405</v>
+        <v>20.24889364036209</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.80112040829907</v>
+        <v>29.80112040830828</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>32.8400165237948</v>
+        <v>32.84001652378775</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.54889129823606</v>
+        <v>36.54889129815841</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>43.07497166290487</v>
+        <v>43.0749716628702</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>45.71361621629545</v>
+        <v>45.71361621626293</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.57717600815328</v>
+        <v>25.57717600813384</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>42.04132790396794</v>
+        <v>42.04132790393531</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>47.74762330977056</v>
+        <v>47.74762330973986</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>1.500252144822401</v>
+        <v>1.500252144849572</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.67052237996755</v>
+        <v>34.67052237996266</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>41.7961355558899</v>
+        <v>41.79613555586035</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>18.48461563226555</v>
+        <v>18.48461563221803</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.89886962868603</v>
+        <v>30.89886962869149</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.99873331158675</v>
+        <v>34.9987333115797</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>26.84199971222198</v>
+        <v>26.84199971219561</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.39566054305861</v>
+        <v>36.39566054303224</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>39.43494629089638</v>
+        <v>39.43494629089911</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>43.14461551488351</v>
+        <v>43.14461551483633</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>49.67150471762851</v>
+        <v>49.67150471755586</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>52.31051470694261</v>
+        <v>52.31051470686985</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>32.17224578594231</v>
+        <v>32.17224578599711</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>48.63830617262032</v>
+        <v>48.63830617259667</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>54.34551838055141</v>
+        <v>54.34551838056028</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>14.23311723721723</v>
+        <v>14.23311723728306</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>47.40287625570737</v>
+        <v>47.40287625565064</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>54.52847107540479</v>
+        <v>54.52847107534772</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>31.21865451364043</v>
+        <v>31.21865451374878</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>43.63295517625453</v>
+        <v>43.63295517631285</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>47.7329222866441</v>
+        <v>47.7329222867878</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>39.5763423639256</v>
+        <v>39.57634236397301</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>49.13001141881169</v>
+        <v>49.13001141877542</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>52.16934325089834</v>
+        <v>52.16934325093494</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>55.8801854497252</v>
+        <v>55.88018544973828</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>62.40702074757677</v>
+        <v>62.40702074759552</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>65.04607051145614</v>
+        <v>65.0460705114567</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>44.90805806057243</v>
+        <v>44.90805806058698</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>61.37394583107196</v>
+        <v>61.37394583112153</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>67.08119696210245</v>
+        <v>67.08119696205152</v>
       </c>
     </row>
   </sheetData>
